--- a/11_iOSApp開発/001_ニートいじり/01_設計書/見積書原紙.xlsx
+++ b/11_iOSApp開発/001_ニートいじり/01_設計書/見積書原紙.xlsx
@@ -7,19 +7,22 @@
     <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="日置くん見積り" sheetId="1" r:id="rId1"/>
-    <sheet name="みのりちゃん見積り" sheetId="2" r:id="rId2"/>
+    <sheet name="澤田さん見積り" sheetId="3" r:id="rId1"/>
+    <sheet name="日置くん見積り" sheetId="1" r:id="rId2"/>
+    <sheet name="みのりちゃん見積り" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">日置くん見積り!$A$7:$D$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">日置くん見積り!$A$1:$D$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">日置くん見積り!$A$7:$D$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">澤田さん見積り!$A$6:$C$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">日置くん見積り!$A$1:$D$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">澤田さん見積り!$A$1:$C$45</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="141">
   <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
@@ -572,6 +575,47 @@
     <rPh sb="48" eb="49">
       <t>ネガ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>澤田あずさ　殿</t>
+    <rPh sb="0" eb="2">
+      <t>サワダ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　下記の通り、粗品をお渡しします。</t>
+    <rPh sb="1" eb="3">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソシナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラックサンダー×１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もろもろ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -711,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,6 +821,9 @@
     </xf>
     <xf numFmtId="5" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,9 +1126,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="63.125" customWidth="1"/>
+    <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.15">
+      <c r="C43" s="2"/>
+    </row>
+    <row r="45" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A45" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A6:C41"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -1679,7 +1825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
